--- a/NON-COVID Player Stats/DL/DL_aggregate.xlsx
+++ b/NON-COVID Player Stats/DL/DL_aggregate.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -62,19 +58,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,9 +439,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -468,20 +455,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Season Group</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PD</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Comb</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Solo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Ast</t>
         </is>
@@ -493,552 +485,2089 @@
           <t>A'Shawn Robinson</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>-24.99999999999999</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>54.62184873949582</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>39.43661971830985</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>77.08333333333333</v>
+        <v>23.66666666666667</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Austin Johnson</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>66.66666666666667</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-23.00884955752212</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>-6.00000000000001</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>-36.50793650793651</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>A'Shawn Robinson</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>61.33333333333334</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>B.J. Hill</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1200</v>
+          <t>A'Shawn Robinson</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48.30508474576271</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>37.28813559322033</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>59.32203389830507</v>
+        <v>9.333333333333332</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Brent Urban</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>110.0000000000001</v>
+          <t>Austin Johnson</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>26.84563758389264</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>47.88732394366196</v>
+        <v>37.66666666666666</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>7.692307692307707</v>
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Charles Omenihu</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>30.64516129032258</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>2.35294117647058</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>92.30769230769234</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Austin Johnson</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>13.33333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>D.J. Jones</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>350.0000000000001</v>
+          <t>Austin Johnson</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>23.23232323232322</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0</v>
+        <v>-8.666666666666664</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>88.46153846153845</v>
+        <v>-1.000000000000002</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>-7.666666666666666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>DaQuan Jones</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>-66.66666666666667</v>
+          <t>B.J. Hill</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-40.31007751937985</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-40.57971014492754</v>
+        <v>39.33333333333334</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-40</v>
+        <v>19.66666666666667</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>DeForest Buckner</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>14.8936170212766</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>1.801801801801796</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>33.76623376623377</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>B.J. Hill</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>31.33333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Grady Jarrett</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>400.0000000000001</v>
+          <t>B.J. Hill</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-23.88888888888889</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-33.00970873786408</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-11.68831168831169</v>
+        <v>7.333333333333332</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>11.66666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Grover Stewart</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>50.00000000000001</v>
+          <t>Brent Urban</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>43.41085271317829</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>24.67532467532467</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>71.15384615384616</v>
+        <v>7.888888888888889</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Jarran Reed</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>39.81481481481482</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>45.28301886792453</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>34.54545454545456</v>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Brent Urban</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>9.333333333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Jeffery Simmons</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
+          <t>Brent Urban</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>28.88888888888889</v>
+        <v>1.222222222222223</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>14.28571428571428</v>
+        <v>4.444444444444446</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>52.94117647058824</v>
+        <v>3.777777777777777</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.6666666666666679</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>John Franklin</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>33.33333333333333</v>
+          <t>Charles Omenihu</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>73.43750000000001</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>58.06451612903224</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>87.87878787878789</v>
+        <v>9.444444444444445</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Jonathan Bullard</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>200.0000000000001</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>111.7647058823529</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>158.3333333333333</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>70.37037037037037</v>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Charles Omenihu</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>8.333333333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Josh Hines-Allen</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
+          <t>Charles Omenihu</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>31.25000000000001</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>23.8095238095238</v>
+        <v>4.222222222222221</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45.45454545454545</v>
+        <v>0.2222222222222214</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>4.000000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Maxx Crosby</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>-8.333333333333337</v>
+          <t>D.J. Jones</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>57.74647887323944</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>53.26086956521738</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>65.99999999999999</v>
+        <v>24.33333333333333</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Montez Sweat</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>-16.66666666666667</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>-2.521008403361344</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>-2.314814814814821</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>-2.836879432624115</v>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>D.J. Jones</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>16.33333333333333</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Myles Garrett</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>59.99999999999999</v>
+          <t>D.J. Jones</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>16.40625</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>27.90697674418604</v>
+        <v>7.666666666666664</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-7.142857142857142</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>7.666666666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Ogbo Okoronkwo</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>200.0000000000001</v>
+          <t>DaQuan Jones</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>188.235294117647</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>245</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>107.1428571428571</v>
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Pat O Connor</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>11.11111111111112</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>259.9999999999999</v>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>DaQuan Jones</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Poona Ford</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>250.0000000000001</v>
+          <t>DaQuan Jones</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-33.59999999999999</v>
+        <v>-0.6666666666666667</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-26.08695652173913</v>
+        <v>-17.33333333333333</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-42.85714285714287</v>
+        <v>-9.333333333333334</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Quinton Jefferson</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>-60</v>
+          <t>DeForest Buckner</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>-24.65277777777778</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>-25.92592592592592</v>
+        <v>62.66666666666666</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-23.52941176470588</v>
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Rashan Gary</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>19.41747572815533</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>18.64406779661016</v>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>20.45454545454547</v>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>DeForest Buckner</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>37.66666666666666</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>34.33333333333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Shelby Harris</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
-        <v>-38.88888888888889</v>
+          <t>DeForest Buckner</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>-16.15384615384615</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-18.05555555555555</v>
+        <v>9.333333333333336</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-13.79310344827585</v>
+        <v>0.6666666666666643</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>8.666666666666668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Sheldon Rankins</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>-100</v>
+          <t>Grady Jarrett</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>58.06451612903224</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>82.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>25.92592592592593</v>
+        <v>34.33333333333334</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>25.66666666666667</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>Shy Tuttle</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>46.80851063829788</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>59.52380952380951</v>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>36.53846153846155</v>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Grady Jarrett</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>22.66666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Trey Hendrickson</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>1100</v>
+          <t>Grady Jarrett</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>55.12820512820513</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>53.70370370370371</v>
+        <v>-14.33333333333334</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>58.33333333333333</v>
+        <v>-11.33333333333334</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
+          <t>Grover Stewart</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>17.33333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Grover Stewart</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>61.66666666666666</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>29.66666666666667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Grover Stewart</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>18.66666666666666</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>6.333333333333332</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>12.33333333333334</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Jarran Reed</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>18.33333333333333</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Jarran Reed</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>50.33333333333334</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>24.66666666666667</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Jarran Reed</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>14.33333333333334</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>6.333333333333336</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Jeffery Simmons</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Jeffery Simmons</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Jeffery Simmons</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>John Franklin</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>John Franklin</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>20.66666666666667</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>John Franklin</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>5.999999999999998</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>9.666666666666668</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Jonathan Bullard</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Jonathan Bullard</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>15.33333333333333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Jonathan Bullard</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>6.333333333333334</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Josh Hines-Allen</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>42.66666666666666</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Josh Hines-Allen</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>34.66666666666666</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Josh Hines-Allen</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>13.33333333333334</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>6.666666666666664</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>6.666666666666666</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Maxx Crosby</t>
+        </is>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>47.33333333333334</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>30.66666666666667</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Maxx Crosby</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>74.66666666666667</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>27.66666666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Maxx Crosby</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>-0.3333333333333335</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>27.33333333333334</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Montez Sweat</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>39.66666666666666</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>15.66666666666667</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Montez Sweat</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2.222222222222222</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>23.44444444444444</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>15.22222222222222</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Montez Sweat</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>-0.4444444444444446</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>-0.5555555555555571</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>-0.4444444444444446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Myles Garrett</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>42.66666666666666</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>Myles Garrett</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>49.66666666666666</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>Myles Garrett</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>7.999999999999996</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Ogbo Okoronkwo</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>11.33333333333333</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Ogbo Okoronkwo</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>32.66666666666666</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>9.666666666666666</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Ogbo Okoronkwo</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>4.999999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Pat O Connor</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Pat O Connor</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Pat O Connor</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>0.3333333333333335</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Poona Ford</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>18.66666666666667</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Poona Ford</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Poona Ford</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>-8.000000000000002</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Quinton Jefferson</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Quinton Jefferson</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>24.11111111111111</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Quinton Jefferson</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>-7.888888888888889</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>-3.888888888888888</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Rashan Gary</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>34.33333333333334</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>14.66666666666667</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Rashan Gary</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>17.66666666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Rashan Gary</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>6.666666666666664</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>3.666666666666664</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>3.000000000000002</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Shelby Harris</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>19.33333333333333</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Shelby Harris</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Shelby Harris</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>-2.333333333333333</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>-4.333333333333332</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>-2.666666666666664</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Sheldon Rankins</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Sheldon Rankins</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>32.66666666666666</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>11.33333333333333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Sheldon Rankins</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>9.666666666666666</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>2.333333333333334</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Shy Tuttle</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>17.33333333333333</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Shy Tuttle</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>23.66666666666667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Shy Tuttle</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>6.333333333333336</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Trey Hendrickson</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Trey Hendrickson</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>40.33333333333334</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>12.66666666666667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Trey Hendrickson</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>14.33333333333334</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>9.666666666666668</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>4.666666666666666</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
           <t>Tyquan Lewis</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
-        <v>25.00000000000001</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>46.51162790697674</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>25.00000000000001</v>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>109.0909090909091</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Tyquan Lewis</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Tyquan Lewis</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>0.3333333333333335</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>6.666666666666666</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>2.666666666666668</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>William Gholston</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>-50</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>-32.20338983050848</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>-43.66197183098592</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>-14.89361702127659</v>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>39.33333333333334</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>15.66666666666667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>William Gholston</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>13.33333333333333</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>William Gholston</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>-12.66666666666667</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>-10.33333333333333</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>-2.333333333333332</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>